--- a/state_results/Contact_Recreation/HautapuatPapakaiRoadBridge_e6f936f5c2.xlsx
+++ b/state_results/Contact_Recreation/HautapuatPapakaiRoadBridge_e6f936f5c2.xlsx
@@ -908,7 +908,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>2014 - 2018</t>
@@ -1344,7 +1348,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>2015 - 2019</t>
@@ -1780,7 +1788,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>2016 - 2020</t>
@@ -2216,7 +2228,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -2652,7 +2668,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>2018 - 2022</t>

--- a/state_results/Contact_Recreation/HautapuatPapakaiRoadBridge_e6f936f5c2.xlsx
+++ b/state_results/Contact_Recreation/HautapuatPapakaiRoadBridge_e6f936f5c2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="46">
   <si>
     <t>site name</t>
   </si>
@@ -100,18 +100,12 @@
     <t>E. coli (Primary Contact)</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>Poor</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>2014 - 2018</t>
   </si>
   <si>
@@ -128,6 +122,12 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
+  </si>
+  <si>
+    <t>2021 - 2025</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -509,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,40 +594,40 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
       </c>
       <c r="F2">
-        <v>170</v>
+        <v>734.54768</v>
       </c>
       <c r="G2">
-        <v>531.221099896012</v>
+        <v>5591.05750113477</v>
       </c>
       <c r="H2">
-        <v>6292.50729552851</v>
+        <v>62332.404044506</v>
       </c>
       <c r="I2">
-        <v>2517.5</v>
+        <v>18275.74101</v>
       </c>
       <c r="J2">
-        <v>23.2558139534884</v>
+        <v>60.4651162790698</v>
       </c>
       <c r="K2">
-        <v>34.8837209302326</v>
+        <v>62.7906976744186</v>
       </c>
       <c r="L2">
-        <v>160</v>
+        <v>584.12359</v>
       </c>
       <c r="M2">
-        <v>631.4</v>
+        <v>11427.23398</v>
       </c>
       <c r="N2">
-        <v>641.9</v>
+        <v>12688.38676</v>
       </c>
       <c r="O2">
-        <v>1415.6</v>
+        <v>16697.13484</v>
       </c>
       <c r="P2">
         <v>1840392.992</v>
@@ -662,40 +662,40 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
       </c>
       <c r="F3">
-        <v>170</v>
+        <v>734.54768</v>
       </c>
       <c r="G3">
-        <v>531.221099896012</v>
+        <v>5591.05750113477</v>
       </c>
       <c r="H3">
-        <v>6292.50729552851</v>
+        <v>62332.404044506</v>
       </c>
       <c r="I3">
-        <v>2517.5</v>
+        <v>18275.74101</v>
       </c>
       <c r="J3">
-        <v>23.2558139534884</v>
+        <v>60.4651162790698</v>
       </c>
       <c r="K3">
-        <v>34.8837209302326</v>
+        <v>62.7906976744186</v>
       </c>
       <c r="L3">
-        <v>160</v>
+        <v>584.12359</v>
       </c>
       <c r="M3">
-        <v>631.4</v>
+        <v>11427.23398</v>
       </c>
       <c r="N3">
-        <v>641.9</v>
+        <v>12688.38676</v>
       </c>
       <c r="O3">
-        <v>1415.6</v>
+        <v>16697.13484</v>
       </c>
       <c r="P3">
         <v>1840392.992</v>
@@ -730,40 +730,40 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
       </c>
       <c r="F4">
-        <v>170</v>
+        <v>734.54768</v>
       </c>
       <c r="G4">
-        <v>531.221099896012</v>
+        <v>5591.05750113477</v>
       </c>
       <c r="H4">
-        <v>6292.50729552851</v>
+        <v>62332.404044506</v>
       </c>
       <c r="I4">
-        <v>2517.5</v>
+        <v>18275.74101</v>
       </c>
       <c r="J4">
-        <v>23.2558139534884</v>
+        <v>60.4651162790698</v>
       </c>
       <c r="K4">
-        <v>34.8837209302326</v>
+        <v>62.7906976744186</v>
       </c>
       <c r="L4">
-        <v>160</v>
+        <v>584.12359</v>
       </c>
       <c r="M4">
-        <v>631.4</v>
+        <v>11427.23398</v>
       </c>
       <c r="N4">
-        <v>641.9</v>
+        <v>12688.38676</v>
       </c>
       <c r="O4">
-        <v>1415.6</v>
+        <v>16697.13484</v>
       </c>
       <c r="P4">
         <v>1840392.992</v>
@@ -795,43 +795,43 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
       </c>
       <c r="F5">
-        <v>170</v>
+        <v>734.54768</v>
       </c>
       <c r="G5">
-        <v>531.221099896012</v>
+        <v>5591.05750113477</v>
       </c>
       <c r="H5">
-        <v>6292.50729552851</v>
+        <v>62332.404044506</v>
       </c>
       <c r="I5">
-        <v>2517.5</v>
+        <v>18275.74101</v>
       </c>
       <c r="J5">
-        <v>23.2558139534884</v>
+        <v>60.4651162790698</v>
       </c>
       <c r="K5">
-        <v>34.8837209302326</v>
+        <v>62.7906976744186</v>
       </c>
       <c r="L5">
-        <v>160</v>
+        <v>584.12359</v>
       </c>
       <c r="M5">
-        <v>631.4</v>
+        <v>11427.23398</v>
       </c>
       <c r="N5">
-        <v>641.9</v>
+        <v>12688.38676</v>
       </c>
       <c r="O5">
-        <v>1415.6</v>
+        <v>16697.13484</v>
       </c>
       <c r="P5">
         <v>1840392.992</v>
@@ -863,43 +863,43 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" t="s">
         <v>38</v>
       </c>
       <c r="F6">
-        <v>170</v>
+        <v>734.54768</v>
       </c>
       <c r="G6">
-        <v>531.221099896012</v>
+        <v>5591.05750113477</v>
       </c>
       <c r="H6">
-        <v>6292.50729552851</v>
+        <v>62332.404044506</v>
       </c>
       <c r="I6">
-        <v>2517.5</v>
+        <v>18275.74101</v>
       </c>
       <c r="J6">
-        <v>23.2558139534884</v>
+        <v>60.4651162790698</v>
       </c>
       <c r="K6">
-        <v>34.8837209302326</v>
+        <v>62.7906976744186</v>
       </c>
       <c r="L6">
-        <v>160</v>
+        <v>584.12359</v>
       </c>
       <c r="M6">
-        <v>631.4</v>
+        <v>11427.23398</v>
       </c>
       <c r="N6">
-        <v>641.9</v>
+        <v>12688.38676</v>
       </c>
       <c r="O6">
-        <v>1415.6</v>
+        <v>16697.13484</v>
       </c>
       <c r="P6">
         <v>1840392.992</v>
@@ -931,43 +931,43 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
       <c r="E7" t="s">
         <v>38</v>
       </c>
       <c r="F7">
-        <v>175.5</v>
+        <v>2707.73445</v>
       </c>
       <c r="G7">
-        <v>505.068292356493</v>
+        <v>7246.29758035072</v>
       </c>
       <c r="H7">
-        <v>6292.50729552851</v>
+        <v>62332.404044506</v>
       </c>
       <c r="I7">
-        <v>2150</v>
+        <v>28161.56401</v>
       </c>
       <c r="J7">
-        <v>18.1818181818182</v>
+        <v>71.2121212121212</v>
       </c>
       <c r="K7">
-        <v>33.3333333333333</v>
+        <v>74.24242424242421</v>
       </c>
       <c r="L7">
-        <v>165</v>
+        <v>2252.12067</v>
       </c>
       <c r="M7">
-        <v>513.9</v>
+        <v>12744.19088</v>
       </c>
       <c r="N7">
-        <v>596.6799999999999</v>
+        <v>14724.44077</v>
       </c>
       <c r="O7">
-        <v>1226.84</v>
+        <v>19203.56958</v>
       </c>
       <c r="P7">
         <v>1840392.992</v>
@@ -999,43 +999,43 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
       <c r="F8">
-        <v>175.5</v>
+        <v>2707.73445</v>
       </c>
       <c r="G8">
-        <v>505.068292356493</v>
+        <v>7246.29758035072</v>
       </c>
       <c r="H8">
-        <v>6292.50729552851</v>
+        <v>62332.404044506</v>
       </c>
       <c r="I8">
-        <v>2150</v>
+        <v>28161.56401</v>
       </c>
       <c r="J8">
-        <v>18.1818181818182</v>
+        <v>71.2121212121212</v>
       </c>
       <c r="K8">
-        <v>33.3333333333333</v>
+        <v>74.24242424242421</v>
       </c>
       <c r="L8">
-        <v>165</v>
+        <v>2252.12067</v>
       </c>
       <c r="M8">
-        <v>513.9</v>
+        <v>12744.19088</v>
       </c>
       <c r="N8">
-        <v>596.6799999999999</v>
+        <v>14724.44077</v>
       </c>
       <c r="O8">
-        <v>1226.84</v>
+        <v>19203.56958</v>
       </c>
       <c r="P8">
         <v>1840392.992</v>
@@ -1070,40 +1070,40 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
       </c>
       <c r="F9">
-        <v>175.5</v>
+        <v>2707.73445</v>
       </c>
       <c r="G9">
-        <v>505.068292356493</v>
+        <v>7246.29758035072</v>
       </c>
       <c r="H9">
-        <v>6292.50729552851</v>
+        <v>62332.404044506</v>
       </c>
       <c r="I9">
-        <v>2150</v>
+        <v>28161.56401</v>
       </c>
       <c r="J9">
-        <v>18.1818181818182</v>
+        <v>71.2121212121212</v>
       </c>
       <c r="K9">
-        <v>33.3333333333333</v>
+        <v>74.24242424242421</v>
       </c>
       <c r="L9">
-        <v>165</v>
+        <v>2252.12067</v>
       </c>
       <c r="M9">
-        <v>513.9</v>
+        <v>12744.19088</v>
       </c>
       <c r="N9">
-        <v>596.6799999999999</v>
+        <v>14724.44077</v>
       </c>
       <c r="O9">
-        <v>1226.84</v>
+        <v>19203.56958</v>
       </c>
       <c r="P9">
         <v>1840392.992</v>
@@ -1135,43 +1135,43 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
       </c>
       <c r="F10">
-        <v>175.5</v>
+        <v>2707.73445</v>
       </c>
       <c r="G10">
-        <v>505.068292356493</v>
+        <v>7246.29758035072</v>
       </c>
       <c r="H10">
-        <v>6292.50729552851</v>
+        <v>62332.404044506</v>
       </c>
       <c r="I10">
-        <v>2150</v>
+        <v>28161.56401</v>
       </c>
       <c r="J10">
-        <v>18.1818181818182</v>
+        <v>71.2121212121212</v>
       </c>
       <c r="K10">
-        <v>33.3333333333333</v>
+        <v>74.24242424242421</v>
       </c>
       <c r="L10">
-        <v>165</v>
+        <v>2252.12067</v>
       </c>
       <c r="M10">
-        <v>513.9</v>
+        <v>12744.19088</v>
       </c>
       <c r="N10">
-        <v>596.6799999999999</v>
+        <v>14724.44077</v>
       </c>
       <c r="O10">
-        <v>1226.84</v>
+        <v>19203.56958</v>
       </c>
       <c r="P10">
         <v>1840392.992</v>
@@ -1203,43 +1203,43 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
       </c>
       <c r="F11">
-        <v>175.5</v>
+        <v>2707.73445</v>
       </c>
       <c r="G11">
-        <v>505.068292356493</v>
+        <v>7246.29758035072</v>
       </c>
       <c r="H11">
-        <v>6292.50729552851</v>
+        <v>62332.404044506</v>
       </c>
       <c r="I11">
-        <v>2150</v>
+        <v>28161.56401</v>
       </c>
       <c r="J11">
-        <v>18.1818181818182</v>
+        <v>71.2121212121212</v>
       </c>
       <c r="K11">
-        <v>33.3333333333333</v>
+        <v>74.24242424242421</v>
       </c>
       <c r="L11">
-        <v>165</v>
+        <v>2252.12067</v>
       </c>
       <c r="M11">
-        <v>513.9</v>
+        <v>12744.19088</v>
       </c>
       <c r="N11">
-        <v>596.6799999999999</v>
+        <v>14724.44077</v>
       </c>
       <c r="O11">
-        <v>1226.84</v>
+        <v>19203.56958</v>
       </c>
       <c r="P11">
         <v>1840392.992</v>
@@ -1271,43 +1271,43 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
       </c>
       <c r="F12">
-        <v>171</v>
+        <v>2343.7431</v>
       </c>
       <c r="G12">
-        <v>429.37364707504</v>
+        <v>6799.74808868406</v>
       </c>
       <c r="H12">
-        <v>6292.50729552851</v>
+        <v>62332.404044506</v>
       </c>
       <c r="I12">
-        <v>1439</v>
+        <v>27947.87131</v>
       </c>
       <c r="J12">
-        <v>14.9425287356322</v>
+        <v>75.8620689655172</v>
       </c>
       <c r="K12">
-        <v>32.183908045977</v>
+        <v>79.31034482758621</v>
       </c>
       <c r="L12">
-        <v>160</v>
+        <v>2099.98542</v>
       </c>
       <c r="M12">
-        <v>438.8</v>
+        <v>12333.80425</v>
       </c>
       <c r="N12">
-        <v>497.04</v>
+        <v>14186.43326</v>
       </c>
       <c r="O12">
-        <v>792.14</v>
+        <v>20571.06684</v>
       </c>
       <c r="P12">
         <v>1840392.992</v>
@@ -1339,43 +1339,43 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
       </c>
       <c r="F13">
-        <v>171</v>
+        <v>2343.7431</v>
       </c>
       <c r="G13">
-        <v>429.37364707504</v>
+        <v>6799.74808868406</v>
       </c>
       <c r="H13">
-        <v>6292.50729552851</v>
+        <v>62332.404044506</v>
       </c>
       <c r="I13">
-        <v>1439</v>
+        <v>27947.87131</v>
       </c>
       <c r="J13">
-        <v>14.9425287356322</v>
+        <v>75.8620689655172</v>
       </c>
       <c r="K13">
-        <v>32.183908045977</v>
+        <v>79.31034482758621</v>
       </c>
       <c r="L13">
-        <v>160</v>
+        <v>2099.98542</v>
       </c>
       <c r="M13">
-        <v>438.8</v>
+        <v>12333.80425</v>
       </c>
       <c r="N13">
-        <v>497.04</v>
+        <v>14186.43326</v>
       </c>
       <c r="O13">
-        <v>792.14</v>
+        <v>20571.06684</v>
       </c>
       <c r="P13">
         <v>1840392.992</v>
@@ -1410,40 +1410,40 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
       </c>
       <c r="F14">
-        <v>171</v>
+        <v>2343.7431</v>
       </c>
       <c r="G14">
-        <v>429.37364707504</v>
+        <v>6799.74808868406</v>
       </c>
       <c r="H14">
-        <v>6292.50729552851</v>
+        <v>62332.404044506</v>
       </c>
       <c r="I14">
-        <v>1439</v>
+        <v>27947.87131</v>
       </c>
       <c r="J14">
-        <v>14.9425287356322</v>
+        <v>75.8620689655172</v>
       </c>
       <c r="K14">
-        <v>32.183908045977</v>
+        <v>79.31034482758621</v>
       </c>
       <c r="L14">
-        <v>160</v>
+        <v>2099.98542</v>
       </c>
       <c r="M14">
-        <v>438.8</v>
+        <v>12333.80425</v>
       </c>
       <c r="N14">
-        <v>497.04</v>
+        <v>14186.43326</v>
       </c>
       <c r="O14">
-        <v>792.14</v>
+        <v>20571.06684</v>
       </c>
       <c r="P14">
         <v>1840392.992</v>
@@ -1475,43 +1475,43 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
         <v>38</v>
       </c>
       <c r="F15">
-        <v>171</v>
+        <v>2343.7431</v>
       </c>
       <c r="G15">
-        <v>429.37364707504</v>
+        <v>6799.74808868406</v>
       </c>
       <c r="H15">
-        <v>6292.50729552851</v>
+        <v>62332.404044506</v>
       </c>
       <c r="I15">
-        <v>1439</v>
+        <v>27947.87131</v>
       </c>
       <c r="J15">
-        <v>14.9425287356322</v>
+        <v>75.8620689655172</v>
       </c>
       <c r="K15">
-        <v>32.183908045977</v>
+        <v>79.31034482758621</v>
       </c>
       <c r="L15">
-        <v>160</v>
+        <v>2099.98542</v>
       </c>
       <c r="M15">
-        <v>438.8</v>
+        <v>12333.80425</v>
       </c>
       <c r="N15">
-        <v>497.04</v>
+        <v>14186.43326</v>
       </c>
       <c r="O15">
-        <v>792.14</v>
+        <v>20571.06684</v>
       </c>
       <c r="P15">
         <v>1840392.992</v>
@@ -1543,43 +1543,43 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
       </c>
       <c r="F16">
-        <v>171</v>
+        <v>2343.7431</v>
       </c>
       <c r="G16">
-        <v>429.37364707504</v>
+        <v>6799.74808868406</v>
       </c>
       <c r="H16">
-        <v>6292.50729552851</v>
+        <v>62332.404044506</v>
       </c>
       <c r="I16">
-        <v>1439</v>
+        <v>27947.87131</v>
       </c>
       <c r="J16">
-        <v>14.9425287356322</v>
+        <v>75.8620689655172</v>
       </c>
       <c r="K16">
-        <v>32.183908045977</v>
+        <v>79.31034482758621</v>
       </c>
       <c r="L16">
-        <v>160</v>
+        <v>2099.98542</v>
       </c>
       <c r="M16">
-        <v>438.8</v>
+        <v>12333.80425</v>
       </c>
       <c r="N16">
-        <v>497.04</v>
+        <v>14186.43326</v>
       </c>
       <c r="O16">
-        <v>792.14</v>
+        <v>20571.06684</v>
       </c>
       <c r="P16">
         <v>1840392.992</v>
@@ -1611,43 +1611,43 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
         <v>38</v>
       </c>
       <c r="F17">
-        <v>171</v>
+        <v>2563.81747</v>
       </c>
       <c r="G17">
-        <v>545.25227695158</v>
+        <v>8364.23054373979</v>
       </c>
       <c r="H17">
-        <v>19900</v>
+        <v>87436.76179182919</v>
       </c>
       <c r="I17">
-        <v>1366.7</v>
+        <v>28798.45651</v>
       </c>
       <c r="J17">
-        <v>12.3893805309735</v>
+        <v>76.9911504424779</v>
       </c>
       <c r="K17">
-        <v>31.858407079646</v>
+        <v>83.1858407079646</v>
       </c>
       <c r="L17">
-        <v>160</v>
+        <v>2794.14281</v>
       </c>
       <c r="M17">
-        <v>362.9</v>
+        <v>12713.90498</v>
       </c>
       <c r="N17">
-        <v>430.03</v>
+        <v>15106.83867</v>
       </c>
       <c r="O17">
-        <v>667.9400000000001</v>
+        <v>25293.51782</v>
       </c>
       <c r="P17">
         <v>1840392.992</v>
@@ -1679,43 +1679,43 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
       </c>
       <c r="F18">
-        <v>171</v>
+        <v>2563.81747</v>
       </c>
       <c r="G18">
-        <v>545.25227695158</v>
+        <v>8364.23054373979</v>
       </c>
       <c r="H18">
-        <v>19900</v>
+        <v>87436.76179182919</v>
       </c>
       <c r="I18">
-        <v>1366.7</v>
+        <v>28798.45651</v>
       </c>
       <c r="J18">
-        <v>12.3893805309735</v>
+        <v>76.9911504424779</v>
       </c>
       <c r="K18">
-        <v>31.858407079646</v>
+        <v>83.1858407079646</v>
       </c>
       <c r="L18">
-        <v>160</v>
+        <v>2794.14281</v>
       </c>
       <c r="M18">
-        <v>362.9</v>
+        <v>12713.90498</v>
       </c>
       <c r="N18">
-        <v>430.03</v>
+        <v>15106.83867</v>
       </c>
       <c r="O18">
-        <v>667.9400000000001</v>
+        <v>25293.51782</v>
       </c>
       <c r="P18">
         <v>1840392.992</v>
@@ -1750,40 +1750,40 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
       </c>
       <c r="F19">
-        <v>171</v>
+        <v>2563.81747</v>
       </c>
       <c r="G19">
-        <v>545.25227695158</v>
+        <v>8364.23054373979</v>
       </c>
       <c r="H19">
-        <v>19900</v>
+        <v>87436.76179182919</v>
       </c>
       <c r="I19">
-        <v>1366.7</v>
+        <v>28798.45651</v>
       </c>
       <c r="J19">
-        <v>12.3893805309735</v>
+        <v>76.9911504424779</v>
       </c>
       <c r="K19">
-        <v>31.858407079646</v>
+        <v>83.1858407079646</v>
       </c>
       <c r="L19">
-        <v>160</v>
+        <v>2794.14281</v>
       </c>
       <c r="M19">
-        <v>362.9</v>
+        <v>12713.90498</v>
       </c>
       <c r="N19">
-        <v>430.03</v>
+        <v>15106.83867</v>
       </c>
       <c r="O19">
-        <v>667.9400000000001</v>
+        <v>25293.51782</v>
       </c>
       <c r="P19">
         <v>1840392.992</v>
@@ -1815,43 +1815,43 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
       </c>
       <c r="F20">
-        <v>171</v>
+        <v>2563.81747</v>
       </c>
       <c r="G20">
-        <v>545.25227695158</v>
+        <v>8364.23054373979</v>
       </c>
       <c r="H20">
-        <v>19900</v>
+        <v>87436.76179182919</v>
       </c>
       <c r="I20">
-        <v>1366.7</v>
+        <v>28798.45651</v>
       </c>
       <c r="J20">
-        <v>12.3893805309735</v>
+        <v>76.9911504424779</v>
       </c>
       <c r="K20">
-        <v>31.858407079646</v>
+        <v>83.1858407079646</v>
       </c>
       <c r="L20">
-        <v>160</v>
+        <v>2794.14281</v>
       </c>
       <c r="M20">
-        <v>362.9</v>
+        <v>12713.90498</v>
       </c>
       <c r="N20">
-        <v>430.03</v>
+        <v>15106.83867</v>
       </c>
       <c r="O20">
-        <v>667.9400000000001</v>
+        <v>25293.51782</v>
       </c>
       <c r="P20">
         <v>1840392.992</v>
@@ -1883,43 +1883,43 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
         <v>38</v>
       </c>
       <c r="F21">
-        <v>171</v>
+        <v>2563.81747</v>
       </c>
       <c r="G21">
-        <v>545.25227695158</v>
+        <v>8364.23054373979</v>
       </c>
       <c r="H21">
-        <v>19900</v>
+        <v>87436.76179182919</v>
       </c>
       <c r="I21">
-        <v>1366.7</v>
+        <v>28798.45651</v>
       </c>
       <c r="J21">
-        <v>12.3893805309735</v>
+        <v>76.9911504424779</v>
       </c>
       <c r="K21">
-        <v>31.858407079646</v>
+        <v>83.1858407079646</v>
       </c>
       <c r="L21">
-        <v>160</v>
+        <v>2794.14281</v>
       </c>
       <c r="M21">
-        <v>362.9</v>
+        <v>12713.90498</v>
       </c>
       <c r="N21">
-        <v>430.03</v>
+        <v>15106.83867</v>
       </c>
       <c r="O21">
-        <v>667.9400000000001</v>
+        <v>25293.51782</v>
       </c>
       <c r="P21">
         <v>1840392.992</v>
@@ -1954,40 +1954,40 @@
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
       </c>
       <c r="F22">
-        <v>171</v>
+        <v>4987.41566</v>
       </c>
       <c r="G22">
-        <v>645.076923076923</v>
+        <v>9963.195698881569</v>
       </c>
       <c r="H22">
-        <v>19900</v>
+        <v>91297.5130168594</v>
       </c>
       <c r="I22">
-        <v>2277.5</v>
+        <v>33767.57896</v>
       </c>
       <c r="J22">
-        <v>13.6752136752137</v>
+        <v>89.74358974358969</v>
       </c>
       <c r="K22">
-        <v>35.042735042735</v>
+        <v>96.58119658119659</v>
       </c>
       <c r="L22">
-        <v>175</v>
+        <v>5164.14022</v>
       </c>
       <c r="M22">
-        <v>420</v>
+        <v>15014.61681</v>
       </c>
       <c r="N22">
-        <v>458.18</v>
+        <v>17051.60509</v>
       </c>
       <c r="O22">
-        <v>735.52</v>
+        <v>28995.89813</v>
       </c>
       <c r="P22">
         <v>1840392.992</v>
@@ -2019,43 +2019,43 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
       </c>
       <c r="F23">
-        <v>171</v>
+        <v>4987.41566</v>
       </c>
       <c r="G23">
-        <v>645.076923076923</v>
+        <v>9963.195698881569</v>
       </c>
       <c r="H23">
-        <v>19900</v>
+        <v>91297.5130168594</v>
       </c>
       <c r="I23">
-        <v>2277.5</v>
+        <v>33767.57896</v>
       </c>
       <c r="J23">
-        <v>13.6752136752137</v>
+        <v>89.74358974358969</v>
       </c>
       <c r="K23">
-        <v>35.042735042735</v>
+        <v>96.58119658119659</v>
       </c>
       <c r="L23">
-        <v>175</v>
+        <v>5164.14022</v>
       </c>
       <c r="M23">
-        <v>420</v>
+        <v>15014.61681</v>
       </c>
       <c r="N23">
-        <v>458.18</v>
+        <v>17051.60509</v>
       </c>
       <c r="O23">
-        <v>735.52</v>
+        <v>28995.89813</v>
       </c>
       <c r="P23">
         <v>1840392.992</v>
@@ -2090,40 +2090,40 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
       </c>
       <c r="F24">
-        <v>171</v>
+        <v>4987.41566</v>
       </c>
       <c r="G24">
-        <v>645.076923076923</v>
+        <v>9963.195698881569</v>
       </c>
       <c r="H24">
-        <v>19900</v>
+        <v>91297.5130168594</v>
       </c>
       <c r="I24">
-        <v>2277.5</v>
+        <v>33767.57896</v>
       </c>
       <c r="J24">
-        <v>13.6752136752137</v>
+        <v>89.74358974358969</v>
       </c>
       <c r="K24">
-        <v>35.042735042735</v>
+        <v>96.58119658119659</v>
       </c>
       <c r="L24">
-        <v>175</v>
+        <v>5164.14022</v>
       </c>
       <c r="M24">
-        <v>420</v>
+        <v>15014.61681</v>
       </c>
       <c r="N24">
-        <v>458.18</v>
+        <v>17051.60509</v>
       </c>
       <c r="O24">
-        <v>735.52</v>
+        <v>28995.89813</v>
       </c>
       <c r="P24">
         <v>1840392.992</v>
@@ -2155,43 +2155,43 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
       </c>
       <c r="F25">
-        <v>171</v>
+        <v>4987.41566</v>
       </c>
       <c r="G25">
-        <v>645.076923076923</v>
+        <v>9963.195698881569</v>
       </c>
       <c r="H25">
-        <v>19900</v>
+        <v>91297.5130168594</v>
       </c>
       <c r="I25">
-        <v>2277.5</v>
+        <v>33767.57896</v>
       </c>
       <c r="J25">
-        <v>13.6752136752137</v>
+        <v>89.74358974358969</v>
       </c>
       <c r="K25">
-        <v>35.042735042735</v>
+        <v>96.58119658119659</v>
       </c>
       <c r="L25">
-        <v>175</v>
+        <v>5164.14022</v>
       </c>
       <c r="M25">
-        <v>420</v>
+        <v>15014.61681</v>
       </c>
       <c r="N25">
-        <v>458.18</v>
+        <v>17051.60509</v>
       </c>
       <c r="O25">
-        <v>735.52</v>
+        <v>28995.89813</v>
       </c>
       <c r="P25">
         <v>1840392.992</v>
@@ -2223,43 +2223,43 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
       </c>
       <c r="F26">
-        <v>171</v>
+        <v>4987.41566</v>
       </c>
       <c r="G26">
-        <v>645.076923076923</v>
+        <v>9963.195698881569</v>
       </c>
       <c r="H26">
-        <v>19900</v>
+        <v>91297.5130168594</v>
       </c>
       <c r="I26">
-        <v>2277.5</v>
+        <v>33767.57896</v>
       </c>
       <c r="J26">
-        <v>13.6752136752137</v>
+        <v>89.74358974358969</v>
       </c>
       <c r="K26">
-        <v>35.042735042735</v>
+        <v>96.58119658119659</v>
       </c>
       <c r="L26">
-        <v>175</v>
+        <v>5164.14022</v>
       </c>
       <c r="M26">
-        <v>420</v>
+        <v>15014.61681</v>
       </c>
       <c r="N26">
-        <v>458.18</v>
+        <v>17051.60509</v>
       </c>
       <c r="O26">
-        <v>735.52</v>
+        <v>28995.89813</v>
       </c>
       <c r="P26">
         <v>1840392.992</v>
@@ -2294,40 +2294,40 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
         <v>38</v>
       </c>
       <c r="F27">
-        <v>173</v>
+        <v>5737.15186</v>
       </c>
       <c r="G27">
-        <v>681.419919057935</v>
+        <v>12580.6867624384</v>
       </c>
       <c r="H27">
-        <v>19900</v>
+        <v>99873.5808224284</v>
       </c>
       <c r="I27">
-        <v>2484.6</v>
+        <v>53083.353</v>
       </c>
       <c r="J27">
-        <v>13.2231404958678</v>
+        <v>89.2561983471074</v>
       </c>
       <c r="K27">
-        <v>35.5371900826446</v>
+        <v>95.8677685950413</v>
       </c>
       <c r="L27">
-        <v>175</v>
+        <v>6451.09834</v>
       </c>
       <c r="M27">
-        <v>401.1</v>
+        <v>22712.09781</v>
       </c>
       <c r="N27">
-        <v>434.51</v>
+        <v>24602.38127</v>
       </c>
       <c r="O27">
-        <v>1040.72</v>
+        <v>32369.72292</v>
       </c>
       <c r="P27">
         <v>1840392.992</v>
@@ -2359,43 +2359,43 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
       </c>
       <c r="F28">
-        <v>173</v>
+        <v>5737.15186</v>
       </c>
       <c r="G28">
-        <v>681.419919057935</v>
+        <v>12580.6867624384</v>
       </c>
       <c r="H28">
-        <v>19900</v>
+        <v>99873.5808224284</v>
       </c>
       <c r="I28">
-        <v>2484.6</v>
+        <v>53083.353</v>
       </c>
       <c r="J28">
-        <v>13.2231404958678</v>
+        <v>89.2561983471074</v>
       </c>
       <c r="K28">
-        <v>35.5371900826446</v>
+        <v>95.8677685950413</v>
       </c>
       <c r="L28">
-        <v>175</v>
+        <v>6451.09834</v>
       </c>
       <c r="M28">
-        <v>401.1</v>
+        <v>22712.09781</v>
       </c>
       <c r="N28">
-        <v>434.51</v>
+        <v>24602.38127</v>
       </c>
       <c r="O28">
-        <v>1040.72</v>
+        <v>32369.72292</v>
       </c>
       <c r="P28">
         <v>1840392.992</v>
@@ -2430,40 +2430,40 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
       </c>
       <c r="F29">
-        <v>173</v>
+        <v>5737.15186</v>
       </c>
       <c r="G29">
-        <v>681.419919057935</v>
+        <v>12580.6867624384</v>
       </c>
       <c r="H29">
-        <v>19900</v>
+        <v>99873.5808224284</v>
       </c>
       <c r="I29">
-        <v>2484.6</v>
+        <v>53083.353</v>
       </c>
       <c r="J29">
-        <v>13.2231404958678</v>
+        <v>89.2561983471074</v>
       </c>
       <c r="K29">
-        <v>35.5371900826446</v>
+        <v>95.8677685950413</v>
       </c>
       <c r="L29">
-        <v>175</v>
+        <v>6451.09834</v>
       </c>
       <c r="M29">
-        <v>401.1</v>
+        <v>22712.09781</v>
       </c>
       <c r="N29">
-        <v>434.51</v>
+        <v>24602.38127</v>
       </c>
       <c r="O29">
-        <v>1040.72</v>
+        <v>32369.72292</v>
       </c>
       <c r="P29">
         <v>1840392.992</v>
@@ -2495,43 +2495,43 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
       </c>
       <c r="F30">
-        <v>173</v>
+        <v>5737.15186</v>
       </c>
       <c r="G30">
-        <v>681.419919057935</v>
+        <v>12580.6867624384</v>
       </c>
       <c r="H30">
-        <v>19900</v>
+        <v>99873.5808224284</v>
       </c>
       <c r="I30">
-        <v>2484.6</v>
+        <v>53083.353</v>
       </c>
       <c r="J30">
-        <v>13.2231404958678</v>
+        <v>89.2561983471074</v>
       </c>
       <c r="K30">
-        <v>35.5371900826446</v>
+        <v>95.8677685950413</v>
       </c>
       <c r="L30">
-        <v>175</v>
+        <v>6451.09834</v>
       </c>
       <c r="M30">
-        <v>401.1</v>
+        <v>22712.09781</v>
       </c>
       <c r="N30">
-        <v>434.51</v>
+        <v>24602.38127</v>
       </c>
       <c r="O30">
-        <v>1040.72</v>
+        <v>32369.72292</v>
       </c>
       <c r="P30">
         <v>1840392.992</v>
@@ -2563,63 +2563,743 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31">
+        <v>5737.15186</v>
+      </c>
+      <c r="G31">
+        <v>12580.6867624384</v>
+      </c>
+      <c r="H31">
+        <v>99873.5808224284</v>
+      </c>
+      <c r="I31">
+        <v>53083.353</v>
+      </c>
+      <c r="J31">
+        <v>89.2561983471074</v>
+      </c>
+      <c r="K31">
+        <v>95.8677685950413</v>
+      </c>
+      <c r="L31">
+        <v>6451.09834</v>
+      </c>
+      <c r="M31">
+        <v>22712.09781</v>
+      </c>
+      <c r="N31">
+        <v>24602.38127</v>
+      </c>
+      <c r="O31">
+        <v>32369.72292</v>
+      </c>
+      <c r="P31">
+        <v>1840392.992</v>
+      </c>
+      <c r="Q31">
+        <v>5604874.846</v>
+      </c>
+      <c r="R31" t="s">
+        <v>39</v>
+      </c>
+      <c r="S31" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" t="s">
+        <v>41</v>
+      </c>
+      <c r="U31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32">
+        <v>5260.57664</v>
+      </c>
+      <c r="G32">
+        <v>12712.0876404767</v>
+      </c>
+      <c r="H32">
+        <v>99873.5808224284</v>
+      </c>
+      <c r="I32">
+        <v>52577.81102</v>
+      </c>
+      <c r="J32">
+        <v>89.4308943089431</v>
+      </c>
+      <c r="K32">
+        <v>95.9349593495935</v>
+      </c>
+      <c r="L32">
+        <v>5682.85668</v>
+      </c>
+      <c r="M32">
+        <v>22856.35419</v>
+      </c>
+      <c r="N32">
+        <v>25487.7729</v>
+      </c>
+      <c r="O32">
+        <v>41410.45638</v>
+      </c>
+      <c r="P32">
+        <v>1840392.992</v>
+      </c>
+      <c r="Q32">
+        <v>5604874.846</v>
+      </c>
+      <c r="R32" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" t="s">
+        <v>42</v>
+      </c>
+      <c r="V32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33">
+        <v>5260.57664</v>
+      </c>
+      <c r="G33">
+        <v>12712.0876404767</v>
+      </c>
+      <c r="H33">
+        <v>99873.5808224284</v>
+      </c>
+      <c r="I33">
+        <v>52577.81102</v>
+      </c>
+      <c r="J33">
+        <v>89.4308943089431</v>
+      </c>
+      <c r="K33">
+        <v>95.9349593495935</v>
+      </c>
+      <c r="L33">
+        <v>5682.85668</v>
+      </c>
+      <c r="M33">
+        <v>22856.35419</v>
+      </c>
+      <c r="N33">
+        <v>25487.7729</v>
+      </c>
+      <c r="O33">
+        <v>41410.45638</v>
+      </c>
+      <c r="P33">
+        <v>1840392.992</v>
+      </c>
+      <c r="Q33">
+        <v>5604874.846</v>
+      </c>
+      <c r="R33" t="s">
+        <v>39</v>
+      </c>
+      <c r="S33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" t="s">
+        <v>42</v>
+      </c>
+      <c r="V33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34">
+        <v>5260.57664</v>
+      </c>
+      <c r="G34">
+        <v>12712.0876404767</v>
+      </c>
+      <c r="H34">
+        <v>99873.5808224284</v>
+      </c>
+      <c r="I34">
+        <v>52577.81102</v>
+      </c>
+      <c r="J34">
+        <v>89.4308943089431</v>
+      </c>
+      <c r="K34">
+        <v>95.9349593495935</v>
+      </c>
+      <c r="L34">
+        <v>5682.85668</v>
+      </c>
+      <c r="M34">
+        <v>22856.35419</v>
+      </c>
+      <c r="N34">
+        <v>25487.7729</v>
+      </c>
+      <c r="O34">
+        <v>41410.45638</v>
+      </c>
+      <c r="P34">
+        <v>1840392.992</v>
+      </c>
+      <c r="Q34">
+        <v>5604874.846</v>
+      </c>
+      <c r="R34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S34" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34" t="s">
+        <v>42</v>
+      </c>
+      <c r="V34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35">
+        <v>5260.57664</v>
+      </c>
+      <c r="G35">
+        <v>12712.0876404767</v>
+      </c>
+      <c r="H35">
+        <v>99873.5808224284</v>
+      </c>
+      <c r="I35">
+        <v>52577.81102</v>
+      </c>
+      <c r="J35">
+        <v>89.4308943089431</v>
+      </c>
+      <c r="K35">
+        <v>95.9349593495935</v>
+      </c>
+      <c r="L35">
+        <v>5682.85668</v>
+      </c>
+      <c r="M35">
+        <v>22856.35419</v>
+      </c>
+      <c r="N35">
+        <v>25487.7729</v>
+      </c>
+      <c r="O35">
+        <v>41410.45638</v>
+      </c>
+      <c r="P35">
+        <v>1840392.992</v>
+      </c>
+      <c r="Q35">
+        <v>5604874.846</v>
+      </c>
+      <c r="R35" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35" t="s">
+        <v>40</v>
+      </c>
+      <c r="T35" t="s">
+        <v>41</v>
+      </c>
+      <c r="U35" t="s">
+        <v>42</v>
+      </c>
+      <c r="V35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36">
+        <v>5260.57664</v>
+      </c>
+      <c r="G36">
+        <v>12712.0876404767</v>
+      </c>
+      <c r="H36">
+        <v>99873.5808224284</v>
+      </c>
+      <c r="I36">
+        <v>52577.81102</v>
+      </c>
+      <c r="J36">
+        <v>89.4308943089431</v>
+      </c>
+      <c r="K36">
+        <v>95.9349593495935</v>
+      </c>
+      <c r="L36">
+        <v>5682.85668</v>
+      </c>
+      <c r="M36">
+        <v>22856.35419</v>
+      </c>
+      <c r="N36">
+        <v>25487.7729</v>
+      </c>
+      <c r="O36">
+        <v>41410.45638</v>
+      </c>
+      <c r="P36">
+        <v>1840392.992</v>
+      </c>
+      <c r="Q36">
+        <v>5604874.846</v>
+      </c>
+      <c r="R36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T36" t="s">
+        <v>41</v>
+      </c>
+      <c r="U36" t="s">
+        <v>42</v>
+      </c>
+      <c r="V36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
         <v>37</v>
       </c>
-      <c r="E31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31">
-        <v>173</v>
-      </c>
-      <c r="G31">
-        <v>681.419919057935</v>
-      </c>
-      <c r="H31">
-        <v>19900</v>
-      </c>
-      <c r="I31">
-        <v>2484.6</v>
-      </c>
-      <c r="J31">
-        <v>13.2231404958678</v>
-      </c>
-      <c r="K31">
-        <v>35.5371900826446</v>
-      </c>
-      <c r="L31">
-        <v>175</v>
-      </c>
-      <c r="M31">
-        <v>401.1</v>
-      </c>
-      <c r="N31">
-        <v>434.51</v>
-      </c>
-      <c r="O31">
-        <v>1040.72</v>
-      </c>
-      <c r="P31">
-        <v>1840392.992</v>
-      </c>
-      <c r="Q31">
-        <v>5604874.846</v>
-      </c>
-      <c r="R31" t="s">
-        <v>39</v>
-      </c>
-      <c r="S31" t="s">
-        <v>40</v>
-      </c>
-      <c r="T31" t="s">
-        <v>41</v>
-      </c>
-      <c r="U31" t="s">
-        <v>42</v>
-      </c>
-      <c r="V31" t="s">
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37">
+        <v>3965.37658</v>
+      </c>
+      <c r="G37">
+        <v>11474.3333572147</v>
+      </c>
+      <c r="H37">
+        <v>99873.5808224284</v>
+      </c>
+      <c r="I37">
+        <v>51566.72705</v>
+      </c>
+      <c r="J37">
+        <v>74.0157480314961</v>
+      </c>
+      <c r="K37">
+        <v>81.1023622047244</v>
+      </c>
+      <c r="L37">
+        <v>5025.11122</v>
+      </c>
+      <c r="M37">
+        <v>14743.27745</v>
+      </c>
+      <c r="N37">
+        <v>23699.53903</v>
+      </c>
+      <c r="O37">
+        <v>40463.46472</v>
+      </c>
+      <c r="P37">
+        <v>1840392.992</v>
+      </c>
+      <c r="Q37">
+        <v>5604874.846</v>
+      </c>
+      <c r="R37" t="s">
+        <v>39</v>
+      </c>
+      <c r="S37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T37" t="s">
+        <v>41</v>
+      </c>
+      <c r="U37" t="s">
+        <v>42</v>
+      </c>
+      <c r="V37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38">
+        <v>3965.37658</v>
+      </c>
+      <c r="G38">
+        <v>11474.3333572147</v>
+      </c>
+      <c r="H38">
+        <v>99873.5808224284</v>
+      </c>
+      <c r="I38">
+        <v>51566.72705</v>
+      </c>
+      <c r="J38">
+        <v>74.0157480314961</v>
+      </c>
+      <c r="K38">
+        <v>81.1023622047244</v>
+      </c>
+      <c r="L38">
+        <v>5025.11122</v>
+      </c>
+      <c r="M38">
+        <v>14743.27745</v>
+      </c>
+      <c r="N38">
+        <v>23699.53903</v>
+      </c>
+      <c r="O38">
+        <v>40463.46472</v>
+      </c>
+      <c r="P38">
+        <v>1840392.992</v>
+      </c>
+      <c r="Q38">
+        <v>5604874.846</v>
+      </c>
+      <c r="R38" t="s">
+        <v>39</v>
+      </c>
+      <c r="S38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U38" t="s">
+        <v>42</v>
+      </c>
+      <c r="V38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>3965.37658</v>
+      </c>
+      <c r="G39">
+        <v>11474.3333572147</v>
+      </c>
+      <c r="H39">
+        <v>99873.5808224284</v>
+      </c>
+      <c r="I39">
+        <v>51566.72705</v>
+      </c>
+      <c r="J39">
+        <v>74.0157480314961</v>
+      </c>
+      <c r="K39">
+        <v>81.1023622047244</v>
+      </c>
+      <c r="L39">
+        <v>5025.11122</v>
+      </c>
+      <c r="M39">
+        <v>14743.27745</v>
+      </c>
+      <c r="N39">
+        <v>23699.53903</v>
+      </c>
+      <c r="O39">
+        <v>40463.46472</v>
+      </c>
+      <c r="P39">
+        <v>1840392.992</v>
+      </c>
+      <c r="Q39">
+        <v>5604874.846</v>
+      </c>
+      <c r="R39" t="s">
+        <v>39</v>
+      </c>
+      <c r="S39" t="s">
+        <v>40</v>
+      </c>
+      <c r="T39" t="s">
+        <v>41</v>
+      </c>
+      <c r="U39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40">
+        <v>3965.37658</v>
+      </c>
+      <c r="G40">
+        <v>11474.3333572147</v>
+      </c>
+      <c r="H40">
+        <v>99873.5808224284</v>
+      </c>
+      <c r="I40">
+        <v>51566.72705</v>
+      </c>
+      <c r="J40">
+        <v>74.0157480314961</v>
+      </c>
+      <c r="K40">
+        <v>81.1023622047244</v>
+      </c>
+      <c r="L40">
+        <v>5025.11122</v>
+      </c>
+      <c r="M40">
+        <v>14743.27745</v>
+      </c>
+      <c r="N40">
+        <v>23699.53903</v>
+      </c>
+      <c r="O40">
+        <v>40463.46472</v>
+      </c>
+      <c r="P40">
+        <v>1840392.992</v>
+      </c>
+      <c r="Q40">
+        <v>5604874.846</v>
+      </c>
+      <c r="R40" t="s">
+        <v>39</v>
+      </c>
+      <c r="S40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T40" t="s">
+        <v>41</v>
+      </c>
+      <c r="U40" t="s">
+        <v>42</v>
+      </c>
+      <c r="V40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41">
+        <v>3965.37658</v>
+      </c>
+      <c r="G41">
+        <v>11474.3333572147</v>
+      </c>
+      <c r="H41">
+        <v>99873.5808224284</v>
+      </c>
+      <c r="I41">
+        <v>51566.72705</v>
+      </c>
+      <c r="J41">
+        <v>74.0157480314961</v>
+      </c>
+      <c r="K41">
+        <v>81.1023622047244</v>
+      </c>
+      <c r="L41">
+        <v>5025.11122</v>
+      </c>
+      <c r="M41">
+        <v>14743.27745</v>
+      </c>
+      <c r="N41">
+        <v>23699.53903</v>
+      </c>
+      <c r="O41">
+        <v>40463.46472</v>
+      </c>
+      <c r="P41">
+        <v>1840392.992</v>
+      </c>
+      <c r="Q41">
+        <v>5604874.846</v>
+      </c>
+      <c r="R41" t="s">
+        <v>39</v>
+      </c>
+      <c r="S41" t="s">
+        <v>40</v>
+      </c>
+      <c r="T41" t="s">
+        <v>41</v>
+      </c>
+      <c r="U41" t="s">
+        <v>42</v>
+      </c>
+      <c r="V41" t="s">
         <v>45</v>
       </c>
     </row>
